--- a/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.198549420801302</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1994669274542451</v>
+        <v>0.199466927454245</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1865990854678505</v>
+        <v>0.1867193294461591</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2023984885382091</v>
+        <v>0.1999356524112114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1455323493747918</v>
+        <v>0.1446922462717625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.140556789654368</v>
+        <v>0.1480247222809455</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2418270094579753</v>
+        <v>0.2437343630556125</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2399456729129026</v>
+        <v>0.242834565156013</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1792646398542239</v>
+        <v>0.1761949612818265</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1446919678021042</v>
+        <v>0.14311661094215</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2227926567009949</v>
+        <v>0.2240165112976638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2327698463440105</v>
+        <v>0.2354042486168416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1702094101475888</v>
+        <v>0.1754403291048925</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1581645838241919</v>
+        <v>0.155253149461626</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2636594881071003</v>
+        <v>0.2616246346762239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2831085322435239</v>
+        <v>0.2860332243855163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2259499182116619</v>
+        <v>0.2272070178440416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2671100431740044</v>
+        <v>0.2757301754365923</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3225493403653654</v>
+        <v>0.3279018637996564</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.327003448149049</v>
+        <v>0.3265751218663426</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2555482855290085</v>
+        <v>0.257779139778777</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2630884495747602</v>
+        <v>0.2630812966694955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2775624582633117</v>
+        <v>0.2788658074009958</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2929687606390504</v>
+        <v>0.2953644633876222</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2264550702817749</v>
+        <v>0.2336958988570419</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2497850421811305</v>
+        <v>0.2419917958621152</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2324711245892598</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2904719706173702</v>
+        <v>0.2904719706173701</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3098661997797563</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2084462180459947</v>
+        <v>0.2083459010142324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2471113536567646</v>
+        <v>0.2486237679932144</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1832945402937065</v>
+        <v>0.1850189655879889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2439743853171757</v>
+        <v>0.2485205592181993</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3604581626999523</v>
+        <v>0.3560906844851375</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3130639068135092</v>
+        <v>0.313776058258474</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1985762464662733</v>
+        <v>0.1970159210624925</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2464365750814928</v>
+        <v>0.2485672689189591</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.283238554636233</v>
+        <v>0.2841405150038455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2876098444627244</v>
+        <v>0.2896242704742164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2009087625471698</v>
+        <v>0.1996087148233157</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2629441137270355</v>
+        <v>0.2619017366825454</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2751653217873746</v>
+        <v>0.2738885446786683</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3143346096874891</v>
+        <v>0.3188609305923367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2533321404322217</v>
+        <v>0.2540578990631943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3600421001680139</v>
+        <v>0.3518762617428586</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4365168644330135</v>
+        <v>0.4325242663229307</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3893064500727396</v>
+        <v>0.3907835769032866</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2683917574226045</v>
+        <v>0.2684928952607099</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3340766313471544</v>
+        <v>0.3344478593877963</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.336288310572229</v>
+        <v>0.3372736114456438</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3412396350125065</v>
+        <v>0.3424281972369776</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2506494324886851</v>
+        <v>0.2493420743486877</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3271795845954554</v>
+        <v>0.3300401260305001</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.30587728353748</v>
+        <v>0.3008708355150385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3201350121858076</v>
+        <v>0.3224815480943304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2070754173571401</v>
+        <v>0.2092637860594818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2903717782099295</v>
+        <v>0.2913842665743986</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4430482452309053</v>
+        <v>0.4452398032232227</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.403785232502885</v>
+        <v>0.4074097053165183</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3092204133668747</v>
+        <v>0.306668675595823</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3384359325578663</v>
+        <v>0.337130212368088</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.386744484517929</v>
+        <v>0.3891204870909127</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3734960821213713</v>
+        <v>0.3720961485387836</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2660835304144167</v>
+        <v>0.26524185753179</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3240290823171976</v>
+        <v>0.3254898040884714</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3823468376829383</v>
+        <v>0.3822137383381382</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3950229211092996</v>
+        <v>0.397624643680172</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2721485934002397</v>
+        <v>0.2734093907060626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3706392501650642</v>
+        <v>0.3702190143833914</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5235919126142355</v>
+        <v>0.5203326199712542</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4817665274126527</v>
+        <v>0.4858541339770099</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3834305870583085</v>
+        <v>0.3797186789372503</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3995984902268306</v>
+        <v>0.4016509432560685</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4432366055581162</v>
+        <v>0.4437412056092354</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4281443330045733</v>
+        <v>0.4272595515092896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.316880247445989</v>
+        <v>0.3150879405295438</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3746799501852759</v>
+        <v>0.3752862121487826</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3829337309616402</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4680554720745684</v>
+        <v>0.4680554720745685</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6025024952936385</v>
@@ -1105,7 +1105,7 @@
         <v>0.4104150948632429</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4965513959817122</v>
+        <v>0.4965513959817123</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3822079594604696</v>
+        <v>0.3787650985734343</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3683020241219319</v>
+        <v>0.3701349914774308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3427391524249531</v>
+        <v>0.3414950779595219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4312393767135052</v>
+        <v>0.4281680949251475</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5603025708114245</v>
+        <v>0.5608418337299973</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4656373075703045</v>
+        <v>0.4597918883599298</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.397152106869651</v>
+        <v>0.398547280078061</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4958958845249493</v>
+        <v>0.493691814088989</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4860145173116622</v>
+        <v>0.4849136752602197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4243351685620422</v>
+        <v>0.4284799472928452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3820821269095974</v>
+        <v>0.3843493318060552</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.471260073879358</v>
+        <v>0.4726567145475473</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4732938147366219</v>
+        <v>0.4700252185601823</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4536386448223753</v>
+        <v>0.4552845991533133</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4244535715509754</v>
+        <v>0.4271686238224078</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5082123182751001</v>
+        <v>0.5053033445970715</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6413440836982081</v>
+        <v>0.6474103765257934</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.548294858009983</v>
+        <v>0.5438284933949181</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4774868984643442</v>
+        <v>0.4726654018866034</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5552776829370576</v>
+        <v>0.5517642708478623</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5472952669605174</v>
+        <v>0.5481482961980249</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4866921634088808</v>
+        <v>0.4886772560006322</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4362531563586179</v>
+        <v>0.4405090241122879</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5219752622327001</v>
+        <v>0.5216894118260499</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.6278806018919245</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6389404203676246</v>
+        <v>0.6389404203676244</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6836347467293635</v>
@@ -1241,7 +1241,7 @@
         <v>0.5964489267273089</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6051711256051511</v>
+        <v>0.6051711256051512</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6126788156440864</v>
+        <v>0.6045872443274959</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5420717162456894</v>
+        <v>0.5412519006290082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5163221656700598</v>
+        <v>0.5167056676275563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5321150901356134</v>
+        <v>0.5315626128878552</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.659343705025405</v>
+        <v>0.6568451073613769</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6621713726880262</v>
+        <v>0.6577903405466161</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5840715914788555</v>
+        <v>0.586617992480528</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6081158335133645</v>
+        <v>0.6067916094427349</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6484016286604498</v>
+        <v>0.6512723914969374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6147021079341357</v>
+        <v>0.6160020097011698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5596038328998226</v>
+        <v>0.5653058158331982</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5783182423205606</v>
+        <v>0.5805765316888654</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7074108262757989</v>
+        <v>0.7082132173986943</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.64374531515391</v>
+        <v>0.6395580953683946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6096243968554673</v>
+        <v>0.6106928621199303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6114392824563673</v>
+        <v>0.6096197746843596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7488394803627574</v>
+        <v>0.7468297249688416</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7515912942535834</v>
+        <v>0.7484363224785753</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6726887485436814</v>
+        <v>0.6731927704796365</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6698538387722703</v>
+        <v>0.6706889904493679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.715001052680648</v>
+        <v>0.7171194732344388</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6853427870260788</v>
+        <v>0.6830339649949345</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6291077391961853</v>
+        <v>0.631007884171177</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6282623983856039</v>
+        <v>0.6276321384580107</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.6826691138125954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6232959544402394</v>
+        <v>0.6232959544402397</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.875166174232116</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.719289521344168</v>
+        <v>0.7188955368698521</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7021688926022912</v>
+        <v>0.7079153744518972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6223846802253344</v>
+        <v>0.6322271790915395</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.579227929241375</v>
+        <v>0.5813338419182492</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.8362397916036306</v>
+        <v>0.8422931102287655</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7620864641361863</v>
+        <v>0.7659101646252896</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7263133703939666</v>
+        <v>0.7238745981407066</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7279695713850003</v>
+        <v>0.7297787996088917</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.794706735448905</v>
+        <v>0.7951924530135754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7509481223235015</v>
+        <v>0.7521467449470116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.6972276913260164</v>
+        <v>0.6962242959651177</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6711074951653637</v>
+        <v>0.6703049383710726</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.815812481099031</v>
+        <v>0.8171535773665203</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8042995443683807</v>
+        <v>0.8061901716178402</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7286046309108543</v>
+        <v>0.7328896598204071</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6638379221776229</v>
+        <v>0.6620740968722711</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9083026614269941</v>
+        <v>0.9091055211098859</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8512702200019644</v>
+        <v>0.8504333622624178</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8148354594330862</v>
+        <v>0.8154662714189586</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7879919927770097</v>
+        <v>0.7875404492272051</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8514153482219377</v>
+        <v>0.8546810977522529</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8199203769015264</v>
+        <v>0.820316789977226</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7658821763426374</v>
+        <v>0.7652119093307185</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7217568135678549</v>
+        <v>0.7192126544411728</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.8207642314214654</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8009896229068985</v>
+        <v>0.8009896229068983</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9586394341693459</v>
@@ -1501,7 +1501,7 @@
         <v>0.9111944932267733</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9162252251930844</v>
+        <v>0.9162252251930842</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9388255119535784</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8623803937411167</v>
+        <v>0.8539075883014317</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8226398067363092</v>
+        <v>0.8291783211931854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.775211896191571</v>
+        <v>0.7776914759477225</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7620756414134751</v>
+        <v>0.7637732721302879</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9306120117484261</v>
+        <v>0.9341459791707587</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9165312206314031</v>
+        <v>0.9166099453264921</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8766070792916965</v>
+        <v>0.8743989165587448</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8962080881981284</v>
+        <v>0.894460452022326</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9136349408395907</v>
+        <v>0.916226074332769</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8914372071371465</v>
+        <v>0.8903260202549534</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.847943259314773</v>
+        <v>0.8475986331458024</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8510173860578134</v>
+        <v>0.8475564154902637</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9421818730067679</v>
+        <v>0.9430631844941906</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9130250233223164</v>
+        <v>0.9157855195825159</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8598198724634536</v>
+        <v>0.8635621163648399</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8380124977022286</v>
+        <v>0.8346380610412638</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.977354287494034</v>
+        <v>0.979290315275015</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9640028574342049</v>
+        <v>0.9665259126755688</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9402394684123623</v>
+        <v>0.9388696846466094</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.934521661022344</v>
+        <v>0.9336390939823688</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9571038441368223</v>
+        <v>0.9575969164421825</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9361827261612945</v>
+        <v>0.9374517760559886</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8992315926859114</v>
+        <v>0.8996735053207233</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8875809803444211</v>
+        <v>0.8883348881153853</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3894746405798993</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4547680896157147</v>
+        <v>0.4547680896157148</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.5705339626011435</v>
@@ -1637,7 +1637,7 @@
         <v>0.478273873143024</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5293792450541746</v>
+        <v>0.5293792450541744</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.4992515672809898</v>
@@ -1649,7 +1649,7 @@
         <v>0.4348352822758739</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.493108237457962</v>
+        <v>0.4931082374579619</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4217463439527973</v>
+        <v>0.4225608841561045</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3735907349036597</v>
+        <v>0.3697753228084997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4367627928679932</v>
+        <v>0.4363542408794456</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.524213308600714</v>
+        <v>0.5246853913671619</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.460829771090308</v>
+        <v>0.4615034713348286</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5147631133909514</v>
+        <v>0.5152136935730511</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4801786269210465</v>
+        <v>0.4799680084678725</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4209052520940043</v>
+        <v>0.4224083274331116</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4816579313400714</v>
+        <v>0.4805354574171734</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4578554008318809</v>
+        <v>0.458007807657544</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4084013041644168</v>
+        <v>0.406091569091004</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4731500283535194</v>
+        <v>0.4737041806728017</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5590731126531147</v>
+        <v>0.5600963739409184</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4971996481003389</v>
+        <v>0.4970641357587558</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5443667827508027</v>
+        <v>0.5459186385306525</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5054677359646127</v>
+        <v>0.504313992766655</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4458991768283715</v>
+        <v>0.4460456948658646</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5046836766909504</v>
+        <v>0.5049980755412307</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>92192</v>
+        <v>92251</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>91918</v>
+        <v>90800</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>61045</v>
+        <v>60693</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57318</v>
+        <v>60363</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>113051</v>
+        <v>113943</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>103232</v>
+        <v>104475</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>70945</v>
+        <v>69730</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>52236</v>
+        <v>51667</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>214227</v>
+        <v>215404</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>205856</v>
+        <v>208186</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>138758</v>
+        <v>143022</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>121598</v>
+        <v>119360</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>130265</v>
+        <v>129259</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>128573</v>
+        <v>129901</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>94778</v>
+        <v>95305</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>108926</v>
+        <v>112441</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>150788</v>
+        <v>153291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>140687</v>
+        <v>140502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>101135</v>
+        <v>102017</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>94979</v>
+        <v>94976</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>266891</v>
+        <v>268144</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>259095</v>
+        <v>261213</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>184610</v>
+        <v>190513</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>192037</v>
+        <v>186045</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>153310</v>
+        <v>153236</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>169787</v>
+        <v>170826</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>108235</v>
+        <v>109253</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>116349</v>
+        <v>118517</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>225464</v>
+        <v>222733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>191049</v>
+        <v>191483</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>111906</v>
+        <v>111027</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>123342</v>
+        <v>124409</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>385483</v>
+        <v>386710</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>373128</v>
+        <v>375742</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>231857</v>
+        <v>230356</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>257000</v>
+        <v>255981</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>202381</v>
+        <v>201442</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>215975</v>
+        <v>219085</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>149592</v>
+        <v>150020</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>171700</v>
+        <v>167806</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>273039</v>
+        <v>270541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>237576</v>
+        <v>238478</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>151251</v>
+        <v>151308</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>167207</v>
+        <v>167392</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>457682</v>
+        <v>459023</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>442705</v>
+        <v>444246</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>289259</v>
+        <v>287751</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>319783</v>
+        <v>322579</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>195354</v>
+        <v>192157</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>218288</v>
+        <v>219888</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>138554</v>
+        <v>140018</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>179987</v>
+        <v>180614</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>305590</v>
+        <v>307101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>287031</v>
+        <v>289607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>204514</v>
+        <v>202826</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>210290</v>
+        <v>209479</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>513756</v>
+        <v>516912</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>520172</v>
+        <v>518223</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>354020</v>
+        <v>352900</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>402187</v>
+        <v>404000</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>244193</v>
+        <v>244108</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>269352</v>
+        <v>271126</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>182094</v>
+        <v>182937</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>229740</v>
+        <v>229480</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>361144</v>
+        <v>358896</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>342464</v>
+        <v>345369</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>253596</v>
+        <v>251141</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>248294</v>
+        <v>249569</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>588801</v>
+        <v>589471</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>596282</v>
+        <v>595050</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>421604</v>
+        <v>419219</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>465055</v>
+        <v>465808</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>198422</v>
+        <v>196635</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>226365</v>
+        <v>227491</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>221426</v>
+        <v>220622</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>301255</v>
+        <v>299109</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>288916</v>
+        <v>289194</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>286925</v>
+        <v>283323</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>257782</v>
+        <v>258688</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>363589</v>
+        <v>361973</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>502922</v>
+        <v>501783</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>522279</v>
+        <v>527380</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>494844</v>
+        <v>497780</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>674738</v>
+        <v>676738</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>245709</v>
+        <v>244012</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>278814</v>
+        <v>279826</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>274217</v>
+        <v>275971</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>355026</v>
+        <v>352994</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>330704</v>
+        <v>333832</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>337859</v>
+        <v>335107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>309926</v>
+        <v>306796</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>407127</v>
+        <v>404551</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>566335</v>
+        <v>567218</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>599029</v>
+        <v>601472</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>565002</v>
+        <v>570514</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>747351</v>
+        <v>746942</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>236929</v>
+        <v>233800</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>232781</v>
+        <v>232429</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>246760</v>
+        <v>246943</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>320488</v>
+        <v>320155</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>266366</v>
+        <v>265356</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>296520</v>
+        <v>294559</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>290195</v>
+        <v>291461</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>368813</v>
+        <v>368010</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>512689</v>
+        <v>514958</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>539235</v>
+        <v>540375</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>545483</v>
+        <v>551041</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>699057</v>
+        <v>701786</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>273563</v>
+        <v>273873</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>276443</v>
+        <v>274645</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>291350</v>
+        <v>291861</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>368264</v>
+        <v>367168</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>302521</v>
+        <v>301709</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>336563</v>
+        <v>335150</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>334225</v>
+        <v>334475</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>406256</v>
+        <v>406763</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>565348</v>
+        <v>567023</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>601203</v>
+        <v>599177</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>613233</v>
+        <v>615086</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>759428</v>
+        <v>758666</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>210452</v>
+        <v>210337</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>217522</v>
+        <v>219302</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>208082</v>
+        <v>211373</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>232903</v>
+        <v>233750</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>286775</v>
+        <v>288851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>269776</v>
+        <v>271129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>274374</v>
+        <v>273452</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>318305</v>
+        <v>319096</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>505050</v>
+        <v>505358</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>498466</v>
+        <v>499261</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>496490</v>
+        <v>495776</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>563289</v>
+        <v>562615</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>238693</v>
+        <v>239085</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>249161</v>
+        <v>249746</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>243594</v>
+        <v>245027</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>266924</v>
+        <v>266215</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>311488</v>
+        <v>311763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>301346</v>
+        <v>301050</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>307814</v>
+        <v>308052</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>344549</v>
+        <v>344352</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>541089</v>
+        <v>543164</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>544248</v>
+        <v>544512</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>545379</v>
+        <v>544901</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>605801</v>
+        <v>603665</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>180999</v>
+        <v>179221</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>205537</v>
+        <v>207171</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>199228</v>
+        <v>199865</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>234421</v>
+        <v>234944</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>310739</v>
+        <v>311919</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>356511</v>
+        <v>356542</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>350791</v>
+        <v>349907</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>408509</v>
+        <v>407712</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>496826</v>
+        <v>498235</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>569477</v>
+        <v>568767</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>557240</v>
+        <v>557014</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>649691</v>
+        <v>647048</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>197748</v>
+        <v>197933</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>228120</v>
+        <v>228810</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>220972</v>
+        <v>221934</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>257780</v>
+        <v>256742</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>326346</v>
+        <v>326993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>374977</v>
+        <v>375958</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>376255</v>
+        <v>375707</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>425973</v>
+        <v>425570</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>520464</v>
+        <v>520733</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>598062</v>
+        <v>598872</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>590945</v>
+        <v>591236</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>677604</v>
+        <v>678180</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1445232</v>
+        <v>1448023</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1268098</v>
+        <v>1255147</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1535266</v>
+        <v>1533830</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1865313</v>
+        <v>1866993</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1633430</v>
+        <v>1635818</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1912668</v>
+        <v>1914342</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3354090</v>
+        <v>3352619</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2920616</v>
+        <v>2931046</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3482738</v>
+        <v>3474622</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1568969</v>
+        <v>1569492</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1386257</v>
+        <v>1378417</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1663171</v>
+        <v>1665119</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1989355</v>
+        <v>1992996</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1762345</v>
+        <v>1761865</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2022664</v>
+        <v>2028430</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>3530737</v>
+        <v>3522678</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>3094046</v>
+        <v>3095063</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>3649231</v>
+        <v>3651505</v>
       </c>
     </row>
     <row r="36">
